--- a/files/nodes_content/Анкета_Квалификации_Подрядчика.xlsx
+++ b/files/nodes_content/Анкета_Квалификации_Подрядчика.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCCCA36-5DA0-4E35-98FC-A19A3A36F1A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE0B8CE-AF7C-4F48-9F57-A8F8EB2AC90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8160" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Анкета подрядчика" sheetId="1" r:id="rId1"/>
@@ -2253,10 +2253,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2265,55 +2265,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2334,7 +2325,7 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2352,13 +2343,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2374,11 +2365,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2387,24 +2378,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2415,7 +2406,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2483,7 +2474,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2492,7 +2483,7 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2508,10 +2499,10 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2547,10 +2538,10 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2560,17 +2551,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2579,16 +2564,13 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2597,19 +2579,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2621,7 +2600,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2635,17 +2614,17 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2653,46 +2632,46 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2702,7 +2681,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2721,7 +2700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2730,7 +2709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2739,7 +2718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2761,7 +2740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2770,23 +2749,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -19363,33 +19342,33 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" style="71" customWidth="1"/>
     <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="50.88671875" customWidth="1"/>
-    <col min="6" max="6" width="77.33203125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="77.33203125" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" s="69" customFormat="1" ht="48.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="135" t="s">
+    <row r="3" spans="1:6" s="66" customFormat="1" ht="48.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="128" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
     </row>
     <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
@@ -19397,831 +19376,831 @@
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="101"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
     </row>
     <row r="11" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="105"/>
+      <c r="F11" s="100"/>
     </row>
     <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
     </row>
     <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
     </row>
     <row r="14" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="102"/>
+      <c r="F14" s="99"/>
     </row>
     <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="100"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="105"/>
+      <c r="F15" s="100"/>
     </row>
     <row r="16" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="102"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="99"/>
     </row>
     <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="13" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="105"/>
+      <c r="F17" s="100"/>
     </row>
     <row r="18" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="102"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="99"/>
     </row>
     <row r="19" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="13" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="105"/>
+      <c r="F19" s="100"/>
     </row>
     <row r="20" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="102"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="99"/>
     </row>
     <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="113" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="105"/>
+      <c r="F21" s="100"/>
     </row>
     <row r="22" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
     </row>
     <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="113" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="105"/>
+      <c r="F23" s="100"/>
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="103" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="E24" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="109"/>
+      <c r="B25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="13" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="105"/>
+      <c r="F25" s="100"/>
     </row>
     <row r="26" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="39"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="13" t="s">
+      <c r="C27" s="100"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="105"/>
+      <c r="F27" s="100"/>
     </row>
     <row r="28" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="39"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="109"/>
+      <c r="B29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="105"/>
+      <c r="F29" s="100"/>
     </row>
     <row r="30" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="39"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="117" t="s">
+      <c r="C31" s="100"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="105"/>
+      <c r="F31" s="100"/>
     </row>
     <row r="32" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="100"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="97"/>
     </row>
     <row r="33" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="97"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="100"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="97"/>
     </row>
     <row r="35" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="97"/>
     </row>
     <row r="36" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="100"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="97"/>
     </row>
     <row r="37" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="97"/>
     </row>
     <row r="38" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="100"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="97"/>
     </row>
     <row r="39" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="111"/>
+      <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="105"/>
+      <c r="F39" s="100"/>
     </row>
     <row r="40" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="100"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="97"/>
     </row>
     <row r="41" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="100"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="97"/>
     </row>
     <row r="42" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="113" t="s">
+      <c r="C42" s="100"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="105"/>
+      <c r="F42" s="100"/>
     </row>
     <row r="43" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="39"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="113" t="s">
+      <c r="C44" s="100"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="111"/>
+      <c r="F44" s="105"/>
     </row>
     <row r="45" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="100"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="97"/>
     </row>
     <row r="46" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="113" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="97"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="100"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="97"/>
     </row>
     <row r="48" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="113" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="100"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="97"/>
     </row>
     <row r="49" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="103"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="100"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="97"/>
     </row>
     <row r="50" spans="1:6" ht="117" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="119" t="s">
+      <c r="C50" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="F50" s="120"/>
+      <c r="F50" s="113"/>
     </row>
     <row r="51" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="100"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="97"/>
     </row>
     <row r="52" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="110" t="s">
+      <c r="B52" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="121" t="s">
+      <c r="C52" s="36"/>
+      <c r="D52" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="39"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" spans="1:6" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="122"/>
-      <c r="D53" s="12" t="s">
+      <c r="C53" s="115"/>
+      <c r="D53" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="123"/>
+      <c r="F53" s="116"/>
     </row>
     <row r="54" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="39"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="122"/>
-      <c r="D55" s="12" t="s">
+      <c r="C55" s="115"/>
+      <c r="D55" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="123"/>
+      <c r="F55" s="116"/>
     </row>
     <row r="56" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="39"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="122"/>
-      <c r="D57" s="12" t="s">
+      <c r="C57" s="115"/>
+      <c r="D57" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="123"/>
+      <c r="F57" s="116"/>
     </row>
     <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="127"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="128"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="121"/>
     </row>
     <row r="59" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="129"/>
-      <c r="D59" s="12" t="s">
+      <c r="C59" s="122"/>
+      <c r="D59" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F59" s="123"/>
+      <c r="F59" s="116"/>
     </row>
     <row r="60" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="128"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="121"/>
     </row>
     <row r="61" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="129"/>
-      <c r="D61" s="12" t="s">
+      <c r="C61" s="122"/>
+      <c r="D61" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="F61" s="123" t="s">
+      <c r="F61" s="116" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="128"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="121"/>
     </row>
     <row r="63" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="105"/>
-      <c r="D63" s="10" t="s">
+      <c r="C63" s="100"/>
+      <c r="D63" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F63" s="105"/>
+      <c r="F63" s="100"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
     </row>
     <row r="65" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="105"/>
-      <c r="D65" s="10" t="s">
+      <c r="C65" s="100"/>
+      <c r="D65" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="F65" s="105"/>
+      <c r="F65" s="100"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="85"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="100"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="97"/>
     </row>
     <row r="67" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="131" t="s">
+      <c r="B67" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="105"/>
-      <c r="D67" s="12" t="s">
+      <c r="C67" s="100"/>
+      <c r="D67" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F67" s="129"/>
+      <c r="F67" s="122"/>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="132"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="100"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="97"/>
     </row>
     <row r="69" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="123" t="s">
+      <c r="C69" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="F69" s="105"/>
+      <c r="F69" s="100"/>
     </row>
     <row r="70" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="125"/>
-      <c r="B70" s="131"/>
-      <c r="C70" s="128"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="100"/>
+      <c r="A70" s="118"/>
+      <c r="B70" s="124"/>
+      <c r="C70" s="121"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="97"/>
     </row>
     <row r="71" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="123" t="s">
+      <c r="C71" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="F71" s="123" t="s">
+      <c r="F71" s="116" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="99"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="128"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="100"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="121"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="97"/>
     </row>
     <row r="73" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="99"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="123" t="s">
+      <c r="A73" s="96"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="123" t="s">
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="116" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="99"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="100"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="97"/>
     </row>
     <row r="75" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="99"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="123" t="s">
+      <c r="A75" s="96"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="123" t="s">
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="116" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="103"/>
-      <c r="B76" s="133"/>
-      <c r="C76" s="134"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="100"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="126"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="97"/>
     </row>
     <row r="77" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
-      <c r="B77" s="15"/>
-      <c r="F77" s="19"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="13"/>
+      <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
-      <c r="B78" s="15"/>
-      <c r="F78" s="14" t="str">
+      <c r="A78" s="8"/>
+      <c r="B78" s="13"/>
+      <c r="F78" s="7" t="str">
         <f>CONCATENATE("__________________________   / ",C42," /")</f>
         <v>__________________________   /  /</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
-      <c r="B79" s="15"/>
-      <c r="F79" s="14" t="s">
+      <c r="A79" s="8"/>
+      <c r="B79" s="13"/>
+      <c r="F79" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="6"/>
-      <c r="F80" s="14"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
-      <c r="F81" s="14"/>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="F82" s="14" t="s">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="F82" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="F84" s="16"/>
+      <c r="F84" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20248,7 +20227,7 @@
   <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B18"/>
+      <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20256,1339 +20235,1339 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="96.5546875" customWidth="1"/>
     <col min="3" max="3" width="89.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="140"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
     </row>
     <row r="3" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
-      <c r="C4" s="57"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="67" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="55" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="66"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="66"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:4" s="76" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="55" t="s">
+      <c r="D13" s="52"/>
+    </row>
+    <row r="14" spans="1:4" s="73" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="66"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="63"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="52"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="52"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="52"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
-      <c r="B28" s="55" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="52"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="55" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="66"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
-      <c r="B32" s="55" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="55"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
-      <c r="B34" s="55" t="s">
+      <c r="A34" s="65"/>
+      <c r="B34" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
-      <c r="B35" s="55" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="55"/>
+      <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="66"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="63"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="D37" s="55"/>
+      <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
-      <c r="B38" s="55" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="55"/>
+      <c r="D38" s="52"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="55"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="55" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="55" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="66"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="63"/>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
-      <c r="B44" s="55" t="s">
+      <c r="A44" s="65"/>
+      <c r="B44" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="55"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="65"/>
+      <c r="B45" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="55"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="66"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="63"/>
     </row>
     <row r="47" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
-      <c r="B47" s="55" t="s">
+      <c r="A47" s="65"/>
+      <c r="B47" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
-      <c r="B48" s="55" t="s">
+      <c r="A48" s="65"/>
+      <c r="B48" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="55"/>
+      <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="68"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="65"/>
+      <c r="B49" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="D49" s="55"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="66"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="63"/>
     </row>
     <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="68"/>
-      <c r="B51" s="55" t="s">
+      <c r="A51" s="65"/>
+      <c r="B51" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="55"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="68"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="65"/>
+      <c r="B52" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="55"/>
+      <c r="D52" s="52"/>
     </row>
     <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="68"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="55"/>
+      <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="66"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="63"/>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="68"/>
-      <c r="B55" s="55" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D55" s="55"/>
+      <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="68"/>
-      <c r="B56" s="55" t="s">
+      <c r="A56" s="65"/>
+      <c r="B56" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="55"/>
+      <c r="D56" s="52"/>
     </row>
     <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="68"/>
-      <c r="B57" s="55" t="s">
+      <c r="A57" s="65"/>
+      <c r="B57" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="55"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="66"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="63"/>
     </row>
     <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="68"/>
-      <c r="B59" s="55" t="s">
+      <c r="A59" s="65"/>
+      <c r="B59" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="55"/>
+      <c r="D59" s="52"/>
     </row>
     <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="68"/>
-      <c r="B60" s="55" t="s">
+      <c r="A60" s="65"/>
+      <c r="B60" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="55"/>
+      <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="68"/>
-      <c r="B61" s="55" t="s">
+      <c r="A61" s="65"/>
+      <c r="B61" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="55"/>
+      <c r="D61" s="52"/>
     </row>
     <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="68"/>
-      <c r="B62" s="55" t="s">
+      <c r="A62" s="65"/>
+      <c r="B62" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="55"/>
+      <c r="D62" s="52"/>
     </row>
     <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="68"/>
-      <c r="B63" s="55" t="s">
+      <c r="A63" s="65"/>
+      <c r="B63" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="55"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="66"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="63"/>
     </row>
     <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="68"/>
-      <c r="B65" s="55" t="s">
+      <c r="A65" s="65"/>
+      <c r="B65" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="55"/>
+      <c r="D65" s="52"/>
     </row>
     <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="68"/>
-      <c r="B66" s="55" t="s">
+      <c r="A66" s="65"/>
+      <c r="B66" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="D66" s="55"/>
+      <c r="D66" s="52"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="66"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="63"/>
     </row>
     <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="68"/>
-      <c r="B68" s="55" t="s">
+      <c r="A68" s="65"/>
+      <c r="B68" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C68" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="55"/>
+      <c r="D68" s="52"/>
     </row>
     <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="68"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="65"/>
+      <c r="B69" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="55"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="68"/>
-      <c r="B70" s="55" t="s">
+      <c r="A70" s="65"/>
+      <c r="B70" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C70" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="55"/>
+      <c r="D70" s="52"/>
     </row>
     <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="68"/>
-      <c r="B71" s="55" t="s">
+      <c r="A71" s="65"/>
+      <c r="B71" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="D71" s="55"/>
+      <c r="D71" s="52"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="66"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="63"/>
     </row>
     <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="68"/>
-      <c r="B73" s="55" t="s">
+      <c r="A73" s="65"/>
+      <c r="B73" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="55"/>
+      <c r="D73" s="52"/>
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="68"/>
-      <c r="B74" s="55" t="s">
+      <c r="A74" s="65"/>
+      <c r="B74" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D74" s="55"/>
+      <c r="D74" s="52"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="66"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="63"/>
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="68"/>
-      <c r="B76" s="55" t="s">
+      <c r="A76" s="65"/>
+      <c r="B76" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C76" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="55"/>
+      <c r="D76" s="52"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="66"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="63"/>
     </row>
     <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="68"/>
-      <c r="B78" s="55" t="s">
+      <c r="A78" s="65"/>
+      <c r="B78" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C78" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="D78" s="55"/>
+      <c r="D78" s="52"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="66"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="63"/>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="68"/>
-      <c r="B80" s="55" t="s">
+      <c r="A80" s="65"/>
+      <c r="B80" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C80" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="D80" s="55"/>
+      <c r="D80" s="52"/>
     </row>
     <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="68"/>
-      <c r="B81" s="55" t="s">
+      <c r="A81" s="65"/>
+      <c r="B81" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="D81" s="55"/>
+      <c r="D81" s="52"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="66"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="63"/>
     </row>
     <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="68"/>
-      <c r="B83" s="55" t="s">
+      <c r="A83" s="65"/>
+      <c r="B83" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="D83" s="55"/>
+      <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="68"/>
-      <c r="B84" s="55" t="s">
+      <c r="A84" s="65"/>
+      <c r="B84" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="D84" s="55"/>
+      <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="68"/>
-      <c r="B85" s="55" t="s">
+      <c r="A85" s="65"/>
+      <c r="B85" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="C85" s="59" t="s">
+      <c r="C85" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="D85" s="55"/>
+      <c r="D85" s="52"/>
     </row>
     <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="68"/>
-      <c r="B86" s="55" t="s">
+      <c r="A86" s="65"/>
+      <c r="B86" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="C86" s="59" t="s">
+      <c r="C86" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="D86" s="55"/>
+      <c r="D86" s="52"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="54"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="66"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="63"/>
     </row>
     <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="68"/>
-      <c r="B88" s="55" t="s">
+      <c r="A88" s="65"/>
+      <c r="B88" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="59" t="s">
+      <c r="C88" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="D88" s="55"/>
+      <c r="D88" s="52"/>
     </row>
     <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="68"/>
-      <c r="B89" s="55" t="s">
+      <c r="A89" s="65"/>
+      <c r="B89" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="D89" s="55"/>
+      <c r="D89" s="52"/>
     </row>
     <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="68"/>
-      <c r="B90" s="55" t="s">
+      <c r="A90" s="65"/>
+      <c r="B90" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="55"/>
+      <c r="D90" s="52"/>
     </row>
     <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="68"/>
-      <c r="B91" s="55" t="s">
+      <c r="A91" s="65"/>
+      <c r="B91" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="59" t="s">
+      <c r="C91" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D91" s="55"/>
+      <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="68"/>
-      <c r="B92" s="55" t="s">
+      <c r="A92" s="65"/>
+      <c r="B92" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="59" t="s">
+      <c r="C92" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D92" s="55"/>
+      <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="68"/>
-      <c r="B93" s="55" t="s">
+      <c r="A93" s="65"/>
+      <c r="B93" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D93" s="55"/>
+      <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="68"/>
-      <c r="B94" s="55" t="s">
+      <c r="A94" s="65"/>
+      <c r="B94" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C94" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D94" s="55"/>
+      <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="68"/>
-      <c r="B95" s="55" t="s">
+      <c r="A95" s="65"/>
+      <c r="B95" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="D95" s="55"/>
+      <c r="D95" s="52"/>
     </row>
     <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="68"/>
-      <c r="B96" s="55" t="s">
+      <c r="A96" s="65"/>
+      <c r="B96" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C96" s="59" t="s">
+      <c r="C96" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="D96" s="55"/>
+      <c r="D96" s="52"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="54"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="66"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="63"/>
     </row>
     <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="68"/>
-      <c r="B98" s="55" t="s">
+      <c r="A98" s="65"/>
+      <c r="B98" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C98" s="59" t="s">
+      <c r="C98" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="D98" s="55"/>
+      <c r="D98" s="52"/>
     </row>
     <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="68"/>
-      <c r="B99" s="55" t="s">
+      <c r="A99" s="65"/>
+      <c r="B99" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C99" s="59" t="s">
+      <c r="C99" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="55"/>
+      <c r="D99" s="52"/>
     </row>
     <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="68"/>
-      <c r="B100" s="55" t="s">
+      <c r="A100" s="65"/>
+      <c r="B100" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C100" s="59" t="s">
+      <c r="C100" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D100" s="55"/>
+      <c r="D100" s="52"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="54"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="66"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="63"/>
     </row>
     <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="68"/>
-      <c r="B102" s="55" t="s">
+      <c r="A102" s="65"/>
+      <c r="B102" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="59" t="s">
+      <c r="C102" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D102" s="55"/>
+      <c r="D102" s="52"/>
     </row>
     <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="68"/>
-      <c r="B103" s="55" t="s">
+      <c r="A103" s="65"/>
+      <c r="B103" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="55"/>
+      <c r="D103" s="52"/>
     </row>
     <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="68"/>
-      <c r="B104" s="55" t="s">
+      <c r="A104" s="65"/>
+      <c r="B104" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C104" s="59" t="s">
+      <c r="C104" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="55"/>
+      <c r="D104" s="52"/>
     </row>
     <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="68"/>
-      <c r="B105" s="55" t="s">
+      <c r="A105" s="65"/>
+      <c r="B105" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="C105" s="59" t="s">
+      <c r="C105" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="D105" s="55"/>
+      <c r="D105" s="52"/>
     </row>
     <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="68"/>
-      <c r="B106" s="55" t="s">
+      <c r="A106" s="65"/>
+      <c r="B106" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="C106" s="59" t="s">
+      <c r="C106" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="D106" s="55"/>
+      <c r="D106" s="52"/>
     </row>
     <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="68"/>
-      <c r="B107" s="55" t="s">
+      <c r="A107" s="65"/>
+      <c r="B107" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="C107" s="59" t="s">
+      <c r="C107" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="D107" s="55"/>
+      <c r="D107" s="52"/>
     </row>
     <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="68"/>
-      <c r="B108" s="55" t="s">
+      <c r="A108" s="65"/>
+      <c r="B108" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="C108" s="59" t="s">
+      <c r="C108" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="D108" s="55"/>
+      <c r="D108" s="52"/>
     </row>
     <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="68"/>
-      <c r="B109" s="55" t="s">
+      <c r="A109" s="65"/>
+      <c r="B109" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="D109" s="55"/>
+      <c r="D109" s="52"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="54"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="66"/>
+      <c r="A110" s="51"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="63"/>
     </row>
     <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="68"/>
-      <c r="B111" s="55" t="s">
+      <c r="A111" s="65"/>
+      <c r="B111" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="C111" s="59" t="s">
+      <c r="C111" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D111" s="55"/>
+      <c r="D111" s="52"/>
     </row>
     <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="68"/>
-      <c r="B112" s="55" t="s">
+      <c r="A112" s="65"/>
+      <c r="B112" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="C112" s="59" t="s">
+      <c r="C112" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="D112" s="55"/>
+      <c r="D112" s="52"/>
     </row>
     <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="68"/>
-      <c r="B113" s="55" t="s">
+      <c r="A113" s="65"/>
+      <c r="B113" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="C113" s="55" t="s">
+      <c r="C113" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="D113" s="55"/>
+      <c r="D113" s="52"/>
     </row>
     <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="68"/>
-      <c r="B114" s="55" t="s">
+      <c r="A114" s="65"/>
+      <c r="B114" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="C114" s="59" t="s">
+      <c r="C114" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="D114" s="55"/>
+      <c r="D114" s="52"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="54"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="66"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="63"/>
     </row>
     <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="68"/>
-      <c r="B116" s="55" t="s">
+      <c r="A116" s="65"/>
+      <c r="B116" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C116" s="59" t="s">
+      <c r="C116" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="D116" s="55"/>
+      <c r="D116" s="52"/>
     </row>
     <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="68"/>
-      <c r="B117" s="55" t="s">
+      <c r="A117" s="65"/>
+      <c r="B117" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="59" t="s">
+      <c r="C117" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="D117" s="55"/>
+      <c r="D117" s="52"/>
     </row>
     <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="68"/>
-      <c r="B118" s="55" t="s">
+      <c r="A118" s="65"/>
+      <c r="B118" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C118" s="59" t="s">
+      <c r="C118" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="55"/>
+      <c r="D118" s="52"/>
     </row>
     <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="68"/>
-      <c r="B119" s="55" t="s">
+      <c r="A119" s="65"/>
+      <c r="B119" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C119" s="59" t="s">
+      <c r="C119" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D119" s="55"/>
+      <c r="D119" s="52"/>
     </row>
     <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="68"/>
-      <c r="B120" s="55" t="s">
+      <c r="A120" s="65"/>
+      <c r="B120" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C120" s="59" t="s">
+      <c r="C120" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="D120" s="55"/>
+      <c r="D120" s="52"/>
     </row>
     <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="68"/>
-      <c r="B121" s="55" t="s">
+      <c r="A121" s="65"/>
+      <c r="B121" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="D121" s="55"/>
+      <c r="D121" s="52"/>
     </row>
     <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="68"/>
-      <c r="B122" s="55" t="s">
+      <c r="A122" s="65"/>
+      <c r="B122" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C122" s="59" t="s">
+      <c r="C122" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="D122" s="55"/>
+      <c r="D122" s="52"/>
     </row>
     <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="68"/>
-      <c r="B123" s="55" t="s">
+      <c r="A123" s="65"/>
+      <c r="B123" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C123" s="59" t="s">
+      <c r="C123" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="D123" s="55"/>
+      <c r="D123" s="52"/>
     </row>
     <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="68"/>
-      <c r="B124" s="55" t="s">
+      <c r="A124" s="65"/>
+      <c r="B124" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C124" s="59" t="s">
+      <c r="C124" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="D124" s="55"/>
+      <c r="D124" s="52"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="54"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="66"/>
+      <c r="A125" s="51"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="63"/>
     </row>
     <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="68"/>
-      <c r="B126" s="55" t="s">
+      <c r="A126" s="65"/>
+      <c r="B126" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C126" s="59" t="s">
+      <c r="C126" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D126" s="55"/>
+      <c r="D126" s="52"/>
     </row>
     <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="68"/>
-      <c r="B127" s="55" t="s">
+      <c r="A127" s="65"/>
+      <c r="B127" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C127" s="59" t="s">
+      <c r="C127" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="D127" s="55"/>
+      <c r="D127" s="52"/>
     </row>
     <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="68"/>
-      <c r="B128" s="55" t="s">
+      <c r="A128" s="65"/>
+      <c r="B128" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C128" s="59" t="s">
+      <c r="C128" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D128" s="55"/>
+      <c r="D128" s="52"/>
     </row>
     <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="68"/>
-      <c r="B129" s="55" t="s">
+      <c r="A129" s="65"/>
+      <c r="B129" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C129" s="59" t="s">
+      <c r="C129" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="D129" s="55"/>
+      <c r="D129" s="52"/>
     </row>
     <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="68"/>
-      <c r="B130" s="55" t="s">
+      <c r="A130" s="65"/>
+      <c r="B130" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C130" s="59" t="s">
+      <c r="C130" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D130" s="55"/>
+      <c r="D130" s="52"/>
     </row>
     <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="68"/>
-      <c r="B131" s="55" t="s">
+      <c r="A131" s="65"/>
+      <c r="B131" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C131" s="59" t="s">
+      <c r="C131" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="D131" s="55"/>
+      <c r="D131" s="52"/>
     </row>
     <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="68"/>
-      <c r="B132" s="55" t="s">
+      <c r="A132" s="65"/>
+      <c r="B132" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C132" s="59" t="s">
+      <c r="C132" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="D132" s="55"/>
+      <c r="D132" s="52"/>
     </row>
     <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="68"/>
-      <c r="B133" s="55" t="s">
+      <c r="A133" s="65"/>
+      <c r="B133" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C133" s="55" t="s">
+      <c r="C133" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="D133" s="55"/>
+      <c r="D133" s="52"/>
     </row>
     <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="68"/>
-      <c r="B134" s="55" t="s">
+      <c r="A134" s="65"/>
+      <c r="B134" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C134" s="55" t="s">
+      <c r="C134" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D134" s="55"/>
+      <c r="D134" s="52"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="54"/>
-      <c r="B135" s="56"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="66"/>
+      <c r="A135" s="51"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="63"/>
     </row>
     <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="68"/>
-      <c r="B136" s="55" t="s">
+      <c r="A136" s="65"/>
+      <c r="B136" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="C136" s="59" t="s">
+      <c r="C136" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="D136" s="55"/>
+      <c r="D136" s="52"/>
     </row>
     <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="68"/>
-      <c r="B137" s="55" t="s">
+      <c r="A137" s="65"/>
+      <c r="B137" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C137" s="59" t="s">
+      <c r="C137" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="D137" s="55"/>
+      <c r="D137" s="52"/>
     </row>
     <row r="138" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="68"/>
-      <c r="B138" s="55" t="s">
+      <c r="A138" s="65"/>
+      <c r="B138" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C138" s="59" t="s">
+      <c r="C138" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="D138" s="55"/>
+      <c r="D138" s="52"/>
     </row>
     <row r="139" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="68"/>
-      <c r="B139" s="55" t="s">
+      <c r="A139" s="65"/>
+      <c r="B139" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C139" s="59" t="s">
+      <c r="C139" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="D139" s="55"/>
+      <c r="D139" s="52"/>
     </row>
     <row r="140" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="54"/>
-      <c r="B140" s="79"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="66"/>
+      <c r="A140" s="51"/>
+      <c r="B140" s="76"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="63"/>
     </row>
     <row r="141" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="68"/>
-      <c r="B141" s="55" t="s">
+      <c r="A141" s="65"/>
+      <c r="B141" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="C141" s="59" t="s">
+      <c r="C141" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="D141" s="55"/>
+      <c r="D141" s="52"/>
     </row>
     <row r="142" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="68"/>
-      <c r="B142" s="55" t="s">
+      <c r="A142" s="65"/>
+      <c r="B142" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="C142" s="55" t="s">
+      <c r="C142" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D142" s="55"/>
+      <c r="D142" s="52"/>
     </row>
     <row r="143" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="75"/>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55"/>
-      <c r="D143" s="55"/>
+      <c r="A143" s="72"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
     </row>
     <row r="144" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="68"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="59"/>
-      <c r="D144" s="55"/>
+      <c r="A144" s="65"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="52"/>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
-      <c r="C145" s="57"/>
+      <c r="C145" s="54"/>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
-      <c r="C146" s="57"/>
+      <c r="C146" s="54"/>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
-      <c r="C147" s="57"/>
+      <c r="C147" s="54"/>
       <c r="D147" s="4"/>
     </row>
   </sheetData>
@@ -26545,7 +26524,7 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
@@ -26564,7 +26543,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="77" t="s">
         <v>273</v>
       </c>
     </row>
@@ -26573,599 +26552,599 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="80"/>
-    </row>
-    <row r="3" spans="1:9" s="41" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="F2" s="77"/>
+    </row>
+    <row r="3" spans="1:9" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="137" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
     </row>
     <row r="4" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="155" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="165"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="158"/>
       <c r="I5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="168"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="161"/>
     </row>
     <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="155"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
     </row>
     <row r="8" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="155"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
     </row>
     <row r="9" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="155"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
     </row>
     <row r="10" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
     </row>
     <row r="11" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="155"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
     </row>
     <row r="12" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
     </row>
     <row r="13" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
-    </row>
-    <row r="14" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" s="40" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="146" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="151"/>
+    </row>
+    <row r="14" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" s="37" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="139" t="s">
         <v>239</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-    </row>
-    <row r="16" spans="1:9" s="40" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83" t="s">
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+    </row>
+    <row r="16" spans="1:9" s="37" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="152"/>
-      <c r="G16" s="81" t="s">
+      <c r="F16" s="145"/>
+      <c r="G16" s="78" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="40" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="30" t="s">
+    <row r="17" spans="1:7" s="37" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="90"/>
-    </row>
-    <row r="18" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="50" t="s">
+      <c r="G17" s="87"/>
+    </row>
+    <row r="18" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="94"/>
-    </row>
-    <row r="19" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="91"/>
+    </row>
+    <row r="19" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="95"/>
-    </row>
-    <row r="20" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="92"/>
+    </row>
+    <row r="20" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="95"/>
-    </row>
-    <row r="21" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="92"/>
+    </row>
+    <row r="21" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="95"/>
-    </row>
-    <row r="22" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="92"/>
+    </row>
+    <row r="22" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="95"/>
-    </row>
-    <row r="23" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="92"/>
+    </row>
+    <row r="23" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="95"/>
-    </row>
-    <row r="24" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="92"/>
+    </row>
+    <row r="24" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="95"/>
-    </row>
-    <row r="25" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="92"/>
+    </row>
+    <row r="25" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="95"/>
-    </row>
-    <row r="26" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="92"/>
+    </row>
+    <row r="26" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="95"/>
-    </row>
-    <row r="27" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="92"/>
+    </row>
+    <row r="27" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="95"/>
-    </row>
-    <row r="28" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="92"/>
+    </row>
+    <row r="28" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="95"/>
-    </row>
-    <row r="29" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="92"/>
+    </row>
+    <row r="29" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="95"/>
-    </row>
-    <row r="30" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="92"/>
+    </row>
+    <row r="30" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="95"/>
-    </row>
-    <row r="31" spans="1:7" s="40" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="92"/>
+    </row>
+    <row r="31" spans="1:7" s="37" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="95"/>
-    </row>
-    <row r="32" spans="1:7" s="40" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="92"/>
+    </row>
+    <row r="32" spans="1:7" s="37" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="96"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="93"/>
     </row>
     <row r="33" spans="1:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="147" t="s">
+      <c r="A33" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="93">
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="90">
         <f>SUM(E18:E32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="78">
+      <c r="F33" s="75">
         <f>SUM(F18:F32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="B36" s="146"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
     </row>
     <row r="37" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="151" t="s">
+      <c r="E38" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="152"/>
-      <c r="G38" s="81" t="s">
+      <c r="F38" s="145"/>
+      <c r="G38" s="78" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="30" t="s">
+      <c r="A39" s="89"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="90"/>
+      <c r="G39" s="87"/>
     </row>
     <row r="40" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="94"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="91"/>
     </row>
     <row r="41" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="95"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="92"/>
     </row>
     <row r="42" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="95"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="92"/>
     </row>
     <row r="43" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="95"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="92"/>
     </row>
     <row r="44" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="95"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="92"/>
     </row>
     <row r="45" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="95"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="92"/>
     </row>
     <row r="46" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="95"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="92"/>
     </row>
     <row r="47" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="95"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="92"/>
     </row>
     <row r="48" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="95"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="92"/>
     </row>
     <row r="49" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="95"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="92"/>
     </row>
     <row r="50" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="95"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="92"/>
     </row>
     <row r="51" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="95"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="92"/>
     </row>
     <row r="52" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="95"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="92"/>
     </row>
     <row r="53" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="95"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="92"/>
     </row>
     <row r="54" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="96"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="93"/>
     </row>
     <row r="55" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="147" t="s">
+      <c r="A55" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="148"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="150"/>
-      <c r="E55" s="61">
+      <c r="B55" s="141"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="58">
         <f>SUM(E41:E54)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="62">
+      <c r="F55" s="59">
         <f>SUM(F41:F54)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="159" t="s">
+      <c r="A57" s="152" t="s">
         <v>242</v>
       </c>
-      <c r="B57" s="160"/>
-      <c r="C57" s="160"/>
-      <c r="D57" s="160"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="161"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -27218,407 +27197,407 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="77" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
     </row>
     <row r="4" spans="1:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="168" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="177" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="185"/>
+      <c r="F5" s="178"/>
     </row>
     <row r="6" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="177"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="30" t="s">
+      <c r="A6" s="170"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="35"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="35"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="36"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="35"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="170" t="s">
+      <c r="A17" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="36"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="36"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="35"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="36"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="35"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="35"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="171"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="35"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="35"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="35"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="170" t="s">
+      <c r="A39" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="171"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="37"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="34"/>
     </row>
     <row r="40" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="165" t="s">
         <v>244</v>
       </c>
-      <c r="B41" s="173"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="11">
